--- a/tracks/song_info.xlsx
+++ b/tracks/song_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magic\Documents\GitHub\Video-Game-Music-Competition\tracks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0692093D-D912-4E18-8A4E-3AF3AA37A12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505994AD-6370-4A32-A5EB-DCE027D27065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>Franchise</t>
   </si>
@@ -61,154 +61,268 @@
     <t>Mos Eisley Cantina</t>
   </si>
   <si>
-    <t>1 Super Mario Brothers</t>
-  </si>
-  <si>
-    <t>2 Deltarune</t>
-  </si>
-  <si>
-    <t>3 Danganronpa</t>
-  </si>
-  <si>
-    <t>4 Genshin Impact</t>
-  </si>
-  <si>
-    <t>5 Lego Star Wars</t>
-  </si>
-  <si>
-    <t>6 Super Mario Brothers</t>
-  </si>
-  <si>
-    <t>7 Deltarune</t>
-  </si>
-  <si>
-    <t>9 Genshin Impact</t>
-  </si>
-  <si>
-    <t>10 Lego Star Wars</t>
-  </si>
-  <si>
-    <t>11 Super Mario Brothers</t>
-  </si>
-  <si>
-    <t>8 Danganronpa</t>
-  </si>
-  <si>
-    <t>12 Deltarune</t>
-  </si>
-  <si>
-    <t>13 Danganronpa</t>
-  </si>
-  <si>
-    <t>14 Genshin Impact</t>
-  </si>
-  <si>
-    <t>15 Lego Star Wars</t>
-  </si>
-  <si>
-    <t>16 Super Mario Brothers</t>
-  </si>
-  <si>
-    <t>17 Deltarune</t>
-  </si>
-  <si>
-    <t>18 Danganronpa</t>
-  </si>
-  <si>
-    <t>19 Genshin Impact</t>
-  </si>
-  <si>
-    <t>20 Lego Star Wars</t>
-  </si>
-  <si>
-    <t>21 Super Mario Brothers</t>
-  </si>
-  <si>
-    <t>22 Deltarune</t>
-  </si>
-  <si>
-    <t>23Danganronpa</t>
-  </si>
-  <si>
-    <t>24 Genshin Impact</t>
-  </si>
-  <si>
-    <t>25 Lego Star Wars</t>
-  </si>
-  <si>
-    <t>26 Super Mario Brothers</t>
-  </si>
-  <si>
-    <t>27 Deltarune</t>
-  </si>
-  <si>
-    <t>28 Danganronpa</t>
-  </si>
-  <si>
-    <t>29 Genshin Impact</t>
-  </si>
-  <si>
-    <t>30 Lego Star Wars</t>
-  </si>
-  <si>
-    <t>31 Super Mario Brothers</t>
-  </si>
-  <si>
-    <t>32 Deltarune</t>
-  </si>
-  <si>
-    <t>33 Danganronpa</t>
-  </si>
-  <si>
-    <t>34 Genshin Impact</t>
-  </si>
-  <si>
-    <t>35 Lego Star Wars</t>
-  </si>
-  <si>
-    <t>36 Super Mario Brothers</t>
-  </si>
-  <si>
-    <t>37 Deltarune</t>
-  </si>
-  <si>
-    <t>38 Danganronpa</t>
-  </si>
-  <si>
-    <t>39 Genshin Impact</t>
-  </si>
-  <si>
-    <t>40 Lego Star Wars</t>
-  </si>
-  <si>
-    <t>41 Super Mario Brothers</t>
-  </si>
-  <si>
-    <t>42 Deltarune</t>
-  </si>
-  <si>
-    <t>43 Danganronpa</t>
-  </si>
-  <si>
-    <t>44 Genshin Impact</t>
-  </si>
-  <si>
-    <t>45 Lego Star Wars</t>
-  </si>
-  <si>
-    <t>46 Super Mario Brothers</t>
-  </si>
-  <si>
-    <t>47 Deltarune</t>
-  </si>
-  <si>
-    <t>48 Danganronpa</t>
-  </si>
-  <si>
-    <t>49 Genshin Impact</t>
-  </si>
-  <si>
-    <t>50 Lego Star Wars</t>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Tetris 99</t>
+  </si>
+  <si>
+    <t>Main Theme*</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Main Menu*</t>
+  </si>
+  <si>
+    <t>Super Mario Brothers</t>
+  </si>
+  <si>
+    <t>Danganronpa</t>
+  </si>
+  <si>
+    <t>Lego Star Wars</t>
+  </si>
+  <si>
+    <t>Katamari</t>
+  </si>
+  <si>
+    <t>Katamari Forever</t>
+  </si>
+  <si>
+    <t>Katamari on the Wings</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>In the Halls of the Usurper (Pridemoor Keep)</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonic Forces </t>
+  </si>
+  <si>
+    <t>Fist Bump</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto V</t>
+  </si>
+  <si>
+    <t>Welcome to Los Santos</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Spring (It’s a Big World Outside)</t>
+  </si>
+  <si>
+    <t>Dragon Quest</t>
+  </si>
+  <si>
+    <t>Dragon Quest III</t>
+  </si>
+  <si>
+    <t>Adventure*</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Resident Evil 2 Remake</t>
+  </si>
+  <si>
+    <t>Black Impact</t>
+  </si>
+  <si>
+    <t>Hades</t>
+  </si>
+  <si>
+    <t>Death and I</t>
+  </si>
+  <si>
+    <t>Chrono Trigger</t>
+  </si>
+  <si>
+    <t>At the End of Time</t>
+  </si>
+  <si>
+    <t>Ace Attorney</t>
+  </si>
+  <si>
+    <t>Pursuit - Corner the Culprit</t>
+  </si>
+  <si>
+    <t>Team Fortress</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>RED Triumphs!</t>
+  </si>
+  <si>
+    <t>Club Penguin</t>
+  </si>
+  <si>
+    <t>Pizzatron 3000</t>
+  </si>
+  <si>
+    <t>Pokémon</t>
+  </si>
+  <si>
+    <t>Pokémon: Sword and Shield</t>
+  </si>
+  <si>
+    <t>Gym Theme*</t>
+  </si>
+  <si>
+    <t>Minecraft</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Venom Base for Level 1, 3*</t>
+  </si>
+  <si>
+    <t>SpongeBob SquarePants</t>
+  </si>
+  <si>
+    <t>SpongeBob SquarePants: Battle for Bikini Bottom – Rehydrated</t>
+  </si>
+  <si>
+    <t>Jellyfish Fields</t>
+  </si>
+  <si>
+    <t>Super Smash Bros.</t>
+  </si>
+  <si>
+    <t>Super Smash Bros. Brawl</t>
+  </si>
+  <si>
+    <t>Menu 1</t>
+  </si>
+  <si>
+    <t>Friday Night Funkin’</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Final Fantasy</t>
+  </si>
+  <si>
+    <t>Final Fantasy II</t>
+  </si>
+  <si>
+    <t>Chocobo Theme</t>
+  </si>
+  <si>
+    <t>Metal Gear Solid</t>
+  </si>
+  <si>
+    <t>Metal Gear Solid 3</t>
+  </si>
+  <si>
+    <t>Snake Eater</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mortal Kombat (Sega CD)</t>
+  </si>
+  <si>
+    <t>Track 17*</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kid Icarus: Uprising</t>
+  </si>
+  <si>
+    <t>Boss Battle 1</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls V: Skyrim</t>
+  </si>
+  <si>
+    <t>The Song of the Dragonborn</t>
+  </si>
+  <si>
+    <t>Xenoblade X</t>
+  </si>
+  <si>
+    <t>Theme X</t>
+  </si>
+  <si>
+    <t>Fate/Grand Order</t>
+  </si>
+  <si>
+    <t>Fate -GRAND BATTLE-</t>
+  </si>
+  <si>
+    <t>No More Heroes</t>
+  </si>
+  <si>
+    <t>N.M.H.</t>
+  </si>
+  <si>
+    <t>A Way Out</t>
+  </si>
+  <si>
+    <t>Farewell</t>
+  </si>
+  <si>
+    <t>Octopath Traveller</t>
+  </si>
+  <si>
+    <t>Battle at Journey’s End</t>
+  </si>
+  <si>
+    <t>The World Ends With You</t>
+  </si>
+  <si>
+    <t>Three Minutes Clapping</t>
+  </si>
+  <si>
+    <t>STEINS;GATE</t>
+  </si>
+  <si>
+    <t>GATE OF STEINER</t>
+  </si>
+  <si>
+    <t>Fusionfall</t>
+  </si>
+  <si>
+    <t>Main Theme</t>
+  </si>
+  <si>
+    <t>McDonald’s Ecdp</t>
+  </si>
+  <si>
+    <t>The Golden Arches - Password/My History</t>
+  </si>
+  <si>
+    <t>Pokémon: Black 2 and White 2</t>
+  </si>
+  <si>
+    <t>Victory Lies Before You</t>
   </si>
 </sst>
 </file>
@@ -555,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -579,7 +693,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -590,7 +704,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -601,7 +715,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -612,7 +726,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -623,7 +737,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -634,497 +748,357 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
